--- a/uppermaster.xlsx
+++ b/uppermaster.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0-work\uppermaster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0-work\Uppmaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FF3EE4-4BB3-445A-A80F-D2432597C56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B94F5A-885F-4983-87E9-852605B9E629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,31 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改温度显示位置问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上位机开发记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>uppermaster2207111604</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,15 +35,360 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1、修改TM4C下载指令；             2、增加MSP430下载界面位置；            3、不选择芯片提示；                                        4、修改TM4C的SOC下载指令；                          </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uppermaster2207130941</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、预编译条件现在上位机使用hex烧写程序代码</t>
+    <t>uppermasterV001B001D004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>上位机开发记录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改温度显示位置问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TM4C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">下载指令
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MSP430</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">下载界面位置
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、不选择芯片提示
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TM4C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SOC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下载指令；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                          </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、预编译条件现在上位机使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>hex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>烧写程序代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、根据协议更改阈值设置函数；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、取消全部查询函数的查询；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、增加校准值的设置函数；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、增加读电脑本地时间；</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +399,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +413,32 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,25 +476,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,167 +782,173 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="63" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44753</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="D4" s="3">
-        <v>44754</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
-        <v>44755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/uppermaster.xlsx
+++ b/uppermaster.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0-work\Uppmaster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscodegit\Uppmaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B94F5A-885F-4983-87E9-852605B9E629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C6F32A-333A-497B-9B90-505470829C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>uppermaster2207111604</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,12 +44,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+    <t>uppermasterV001B002D004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>上位机开发记录</t>
     </r>
@@ -59,7 +65,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -72,7 +78,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -85,7 +91,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -98,7 +104,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -111,7 +117,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -127,7 +133,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -146,7 +152,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -166,7 +172,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -185,7 +191,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -205,7 +211,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -225,7 +231,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -244,7 +250,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -263,7 +269,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -288,7 +294,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -307,7 +313,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -323,7 +329,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -343,7 +349,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -363,11 +369,145 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、增加校准值的设置函数；</t>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、增加校准值的设置函数；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、增加读电脑本地时间；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、更改查询三帧命令之间的时间间隔；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、更改设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RACKID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">命令；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、更改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SOC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置命令使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0xF2;
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、RTC设置；</t>
     </r>
     <r>
       <rPr>
@@ -377,17 +517,37 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、增加读电脑本地时间；</t>
+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、更改RTC设置位置;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、更改帧间隔时间</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,7 +559,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,26 +577,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -478,26 +632,26 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,174 +935,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="63" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
-        <v>44753</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="63" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
-        <v>44754</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="D5" s="4">
-        <v>44755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="D6" s="4">
-        <v>44757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/uppermaster.xlsx
+++ b/uppermaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscodegit\Uppmaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C6F32A-333A-497B-9B90-505470829C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A9CF73-8033-4D76-8881-1D3D3BE8D713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>uppermaster2207111604</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -547,8 +546,145 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>、更改帧间隔时间</t>
-    </r>
+      <t xml:space="preserve">、更改帧间隔时间；
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、协议更改，更改对应结构体；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、增加设置页面负数显示；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、增加设置页面单位显示；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、修改查询周期；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、增加校准值设置函数；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、增加发送函数优先级，避免连帧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MCU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不识别；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V001B003D027</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +695,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +727,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -630,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -652,6 +795,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1172,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1036,15 +1182,23 @@
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="3">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="108.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44761</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">

--- a/uppermaster.xlsx
+++ b/uppermaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscodegit\Uppmaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A9CF73-8033-4D76-8881-1D3D3BE8D713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609D79C6-F450-4FA5-ADB4-B1D80400E588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,7 +684,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V001B003D027</t>
+    <t>uppermasterV001B003D027</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,11 +793,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1095,12 +1095,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1193,7 +1193,7 @@
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="3">
